--- a/data/trans_orig/P50_2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P50_2-Dificultad-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6296</v>
+        <v>6369</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001675976206049927</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.008369094826558293</v>
+        <v>0.008466306414459909</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6271</v>
+        <v>5963</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001044106499973706</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005193096313271937</v>
+        <v>0.004938197862044437</v>
       </c>
     </row>
     <row r="5">
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3644</v>
+        <v>3654</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.000966093132174788</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.004843238827490815</v>
+        <v>0.004856597554627903</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5021</v>
+        <v>5970</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.002200070855237819</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01102833144448163</v>
+        <v>0.01311213990115359</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6936</v>
+        <v>5575</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001431322374906181</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.005743314803927831</v>
+        <v>0.004616826092025372</v>
       </c>
     </row>
     <row r="6">
@@ -876,19 +876,19 @@
         <v>3216</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1020</v>
+        <v>1027</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9852</v>
+        <v>9493</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.004274854715711983</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001355158892018452</v>
+        <v>0.001364996127827362</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0130954638539748</v>
+        <v>0.01261844244533303</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5275</v>
+        <v>5630</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.002293418357906352</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01158593566041806</v>
+        <v>0.01236680679907953</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -918,19 +918,19 @@
         <v>4260</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1130</v>
+        <v>1138</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10692</v>
+        <v>9879</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.00352782167043611</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0009354367086302264</v>
+        <v>0.0009419396276862521</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.008853750847389897</v>
+        <v>0.008180835148736952</v>
       </c>
     </row>
     <row r="7">
@@ -947,19 +947,19 @@
         <v>747121</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>739980</v>
+        <v>740442</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>750404</v>
+        <v>750524</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9930830759460633</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9835908248560419</v>
+        <v>0.9842051135101958</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9974459644950699</v>
+        <v>0.9976061444259109</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>417</v>
@@ -968,7 +968,7 @@
         <v>453244</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>448214</v>
+        <v>448074</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>455290</v>
@@ -977,7 +977,7 @@
         <v>0.9955065107868558</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9844584556477217</v>
+        <v>0.98415020377115</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -989,19 +989,19 @@
         <v>1200365</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1193646</v>
+        <v>1193986</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1204507</v>
+        <v>1204394</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.993996749454684</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9884328473368411</v>
+        <v>0.9887141350247241</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9974259820940231</v>
+        <v>0.9973325674726</v>
       </c>
     </row>
     <row r="8">
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5207</v>
+        <v>4801</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001282241813604921</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.007005616288700212</v>
+        <v>0.006459610694366165</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5334</v>
+        <v>6185</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002276283877653193</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01133606469237117</v>
+        <v>0.01314535668954423</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7144</v>
+        <v>7083</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00166756223445533</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.005886028785687346</v>
+        <v>0.005835741501563811</v>
       </c>
     </row>
     <row r="11">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7560</v>
+        <v>7431</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.002923170167522491</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01017138805465677</v>
+        <v>0.009997943460453263</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5738</v>
+        <v>5238</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.002214323997965921</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01219512875218245</v>
+        <v>0.01113303036081412</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -1253,19 +1253,19 @@
         <v>3215</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8173</v>
+        <v>8718</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.002648400201290485</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0008119707884561759</v>
+        <v>0.0008087845059534912</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.00673371498403171</v>
+        <v>0.007182421897203873</v>
       </c>
     </row>
     <row r="12">
@@ -1282,19 +1282,19 @@
         <v>740157</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>734469</v>
+        <v>734575</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>742331</v>
+        <v>742335</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9957945880188726</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9881417353147425</v>
+        <v>0.9882846014919077</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.998718809178435</v>
+        <v>0.9987242891153641</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>434</v>
@@ -1303,7 +1303,7 @@
         <v>468385</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>464070</v>
+        <v>462464</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>470498</v>
@@ -1312,7 +1312,7 @@
         <v>0.9955093921243808</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9863370035753185</v>
+        <v>0.9829249502271813</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -1324,19 +1324,19 @@
         <v>1208542</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1202931</v>
+        <v>1202275</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1211790</v>
+        <v>1211764</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9956840375642542</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9910612521417443</v>
+        <v>0.9905209325538897</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9983600546981757</v>
+        <v>0.9983380784690072</v>
       </c>
     </row>
     <row r="13">
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5688</v>
+        <v>5214</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.00148135998004662</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.008095508722507975</v>
+        <v>0.007420955213753531</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5797</v>
+        <v>5239</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0009097490606294787</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.005066199497278775</v>
+        <v>0.004578976681371138</v>
       </c>
     </row>
     <row r="15">
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6844</v>
+        <v>6666</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.004405234347024026</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01550076851511555</v>
+        <v>0.01509800654219478</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5881</v>
+        <v>5938</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.001699843447418587</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.005140196773799133</v>
+        <v>0.005189366619169362</v>
       </c>
     </row>
     <row r="16">
@@ -1554,19 +1554,19 @@
         <v>4139</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10397</v>
+        <v>9911</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005890027429656553</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001465597750514559</v>
+        <v>0.001445456989798737</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01479669303481594</v>
+        <v>0.01410455730162811</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1575,19 +1575,19 @@
         <v>4143</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1002</v>
+        <v>1072</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9226</v>
+        <v>10608</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009384216272830695</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002268556643364849</v>
+        <v>0.002427496769363774</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02089689666763523</v>
+        <v>0.02402770914017069</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1596,19 +1596,19 @@
         <v>8282</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3270</v>
+        <v>4006</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15791</v>
+        <v>15070</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007238326644004866</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002857599045230989</v>
+        <v>0.003500965330880739</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01380109368877036</v>
+        <v>0.01317093262056319</v>
       </c>
     </row>
     <row r="17">
@@ -1625,19 +1625,19 @@
         <v>697490</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>691097</v>
+        <v>691414</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>700691</v>
+        <v>700679</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9926286125902968</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9835303747419597</v>
+        <v>0.9839807752726791</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9971831507932071</v>
+        <v>0.9971669261269003</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>407</v>
@@ -1646,19 +1646,19 @@
         <v>435412</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>429399</v>
+        <v>427491</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>439489</v>
+        <v>439167</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9862105493801453</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.972591191008501</v>
+        <v>0.9682687868154868</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9954444613684178</v>
+        <v>0.9947151488293476</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1062</v>
@@ -1667,19 +1667,19 @@
         <v>1132902</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1124505</v>
+        <v>1125434</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1138221</v>
+        <v>1138113</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.990152080847947</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9828128743205911</v>
+        <v>0.9836251775100011</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9948006759339622</v>
+        <v>0.9947061312525595</v>
       </c>
     </row>
     <row r="18">
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5484</v>
+        <v>4786</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002267535719112293</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01327183228459358</v>
+        <v>0.01158093734428206</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5017</v>
+        <v>6054</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001362273304149279</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.007293775604116286</v>
+        <v>0.008801767250612415</v>
       </c>
     </row>
     <row r="21">
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4324</v>
+        <v>3615</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.001758866960188166</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01046339734882708</v>
+        <v>0.008748399889015667</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4363</v>
+        <v>3646</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.00105667905701285</v>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.006343817904438952</v>
+        <v>0.005301413285979767</v>
       </c>
     </row>
     <row r="22">
@@ -1944,7 +1944,7 @@
         <v>411566</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>406845</v>
+        <v>407820</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>413230</v>
@@ -1953,7 +1953,7 @@
         <v>0.9959735973206996</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.984547481325853</v>
+        <v>0.9869072129338167</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -1978,7 +1978,7 @@
         <v>686166</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>681997</v>
+        <v>681173</v>
       </c>
       <c r="T22" s="5" t="n">
         <v>687830</v>
@@ -1987,7 +1987,7 @@
         <v>0.9975810476388379</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9915189886913105</v>
+        <v>0.9903222342938423</v>
       </c>
       <c r="W22" s="6" t="n">
         <v>1</v>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8326</v>
+        <v>7912</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0008814012363100456</v>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.003188384450473016</v>
+        <v>0.003029703081154704</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8259</v>
+        <v>8484</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0005411643262368281</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.001941824491970435</v>
+        <v>0.001994700951163603</v>
       </c>
     </row>
     <row r="25">
@@ -2145,19 +2145,19 @@
         <v>2617</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6988</v>
+        <v>8322</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.001002063785403847</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0002786511523647275</v>
+        <v>0.0002785026164404033</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.002675870305524612</v>
+        <v>0.003186561795204322</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -2166,19 +2166,19 @@
         <v>4018</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1007</v>
+        <v>1073</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9200</v>
+        <v>10212</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.002446918460525468</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0006134822981428855</v>
+        <v>0.0006534688397135912</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.005603202841951726</v>
+        <v>0.00621937229208641</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7</v>
@@ -2187,19 +2187,19 @@
         <v>6634</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2977</v>
+        <v>2864</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>13279</v>
+        <v>13626</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.001559803972184454</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0006998406782485195</v>
+        <v>0.0006733610778646329</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.003122071192147794</v>
+        <v>0.003203658655966593</v>
       </c>
     </row>
     <row r="26">
@@ -2216,19 +2216,19 @@
         <v>10254</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4990</v>
+        <v>5184</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>17933</v>
+        <v>19114</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003926614898868053</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001910914388997471</v>
+        <v>0.001985192557277608</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.006866771283067277</v>
+        <v>0.007319139337121501</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -2237,19 +2237,19 @@
         <v>6229</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2589</v>
+        <v>2211</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12550</v>
+        <v>13320</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.003793884414752547</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.001576570069153957</v>
+        <v>0.001346627458037436</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.007643773082414412</v>
+        <v>0.008112520792383648</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>16</v>
@@ -2258,19 +2258,19 @@
         <v>16484</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10350</v>
+        <v>9762</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>26533</v>
+        <v>26152</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.003875378517606504</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002433246459476914</v>
+        <v>0.002295210982791071</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.006238086033876811</v>
+        <v>0.006148505829827322</v>
       </c>
     </row>
     <row r="27">
@@ -2287,19 +2287,19 @@
         <v>2596334</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2586549</v>
+        <v>2586726</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2602838</v>
+        <v>2602469</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9941899200794181</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9904432116897453</v>
+        <v>0.990510740591436</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9966803798874675</v>
+        <v>0.9965389723646378</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1507</v>
@@ -2308,19 +2308,19 @@
         <v>1631641</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1623907</v>
+        <v>1623378</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1636837</v>
+        <v>1636413</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9937591971247219</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9890488116899747</v>
+        <v>0.988726475708661</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9969238075724001</v>
+        <v>0.9966652251632848</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>3948</v>
@@ -2329,19 +2329,19 @@
         <v>4227975</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4216600</v>
+        <v>4216198</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4236455</v>
+        <v>4236639</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9940236531839722</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9913492298534333</v>
+        <v>0.9912547908180543</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9960173032008325</v>
+        <v>0.9960606416211514</v>
       </c>
     </row>
     <row r="28">
@@ -2686,19 +2686,19 @@
         <v>2951</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8167</v>
+        <v>8143</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005746972494515595</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001726441667105957</v>
+        <v>0.00172497110018188</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01590425681882527</v>
+        <v>0.01585596850258734</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -2707,19 +2707,19 @@
         <v>2951</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8529</v>
+        <v>8329</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002259895307011023</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0006812927389246969</v>
+        <v>0.0006838067835907834</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006530885446509092</v>
+        <v>0.006377497865565054</v>
       </c>
     </row>
     <row r="5">
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5269</v>
+        <v>4629</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.001809442325114023</v>
@@ -2808,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01025981030790917</v>
+        <v>0.00901432962997685</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5922</v>
+        <v>5121</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0007115311971189383</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.004534909447153748</v>
+        <v>0.003921534535443662</v>
       </c>
     </row>
     <row r="7">
@@ -2859,19 +2859,19 @@
         <v>509652</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>503816</v>
+        <v>504167</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>512565</v>
+        <v>512564</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9924435851803703</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.981079349254615</v>
+        <v>0.9817632346153372</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9981162683100752</v>
+        <v>0.9981140686318081</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1240</v>
@@ -2880,7 +2880,7 @@
         <v>1302044</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1295165</v>
+        <v>1296471</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>1304945</v>
@@ -2889,10 +2889,10 @@
         <v>0.99702857349587</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9917613399352327</v>
+        <v>0.9927616362797574</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9992503509439895</v>
+        <v>0.9992506732636394</v>
       </c>
     </row>
     <row r="8">
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5041</v>
+        <v>6046</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001917846715216859</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.009611948697014486</v>
+        <v>0.01152907186806567</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5734</v>
+        <v>5434</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0008326379483226907</v>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.004747039304721939</v>
+        <v>0.004498623953583167</v>
       </c>
     </row>
     <row r="10">
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7175</v>
+        <v>6953</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.002954667060956812</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01049750664333403</v>
+        <v>0.0101730981173503</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5974</v>
+        <v>6031</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.002083674235525806</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01139252210827107</v>
+        <v>0.01150022835103004</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -3136,19 +3136,19 @@
         <v>3112</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8505</v>
+        <v>8772</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.002576523347271825</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0007620508262274275</v>
+        <v>0.0007670358696289299</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.007040791406395254</v>
+        <v>0.007261830323008246</v>
       </c>
     </row>
     <row r="12">
@@ -3165,7 +3165,7 @@
         <v>681475</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>676319</v>
+        <v>676541</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>683494</v>
@@ -3174,7 +3174,7 @@
         <v>0.9970453329390432</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9895024933566661</v>
+        <v>0.9898269018826493</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -3186,7 +3186,7 @@
         <v>522320</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>517429</v>
+        <v>516968</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>524418</v>
@@ -3195,7 +3195,7 @@
         <v>0.9959984790492573</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9866730748567414</v>
+        <v>0.9857937554424926</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -3207,19 +3207,19 @@
         <v>1203793</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1197834</v>
+        <v>1198469</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1206830</v>
+        <v>1206901</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9965908387044055</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9916573631749509</v>
+        <v>0.9921835886360538</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9991047108179844</v>
+        <v>0.9991639393637062</v>
       </c>
     </row>
     <row r="13">
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5213</v>
+        <v>5130</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.001484462864678839</v>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.007582046107477427</v>
+        <v>0.007462299238472953</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5150</v>
+        <v>5107</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0009285123072894337</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.004685958990761053</v>
+        <v>0.00464666314870233</v>
       </c>
     </row>
     <row r="16">
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7202</v>
+        <v>7762</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003189657541042347</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01047603120796962</v>
+        <v>0.01129041698865576</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7444</v>
+        <v>8296</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001995089505682661</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.006773010252299225</v>
+        <v>0.007547852893478155</v>
       </c>
     </row>
     <row r="17">
@@ -3484,19 +3484,19 @@
         <v>684280</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>677110</v>
+        <v>678570</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>686543</v>
+        <v>687493</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9953258795942788</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9848967371546838</v>
+        <v>0.9870215543918907</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9986187065742965</v>
+        <v>1</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>406</v>
@@ -3518,19 +3518,19 @@
         <v>1095919</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1089809</v>
+        <v>1089985</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1098183</v>
+        <v>1098189</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9970763981870279</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9915181644809167</v>
+        <v>0.99167775993523</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9991362630254496</v>
+        <v>0.9991418274390916</v>
       </c>
     </row>
     <row r="18">
@@ -3898,19 +3898,19 @@
         <v>3957</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>996</v>
+        <v>977</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9184</v>
+        <v>9103</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.002303178881162501</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0005799688884750174</v>
+        <v>0.0005688157602320628</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.005345377621957803</v>
+        <v>0.005298669879576289</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -3919,19 +3919,19 @@
         <v>3957</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1084</v>
+        <v>1003</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>9216</v>
+        <v>10515</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0009247914270677214</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0002532297838036269</v>
+        <v>0.0002345031622560474</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.002153863864469688</v>
+        <v>0.002457563507081616</v>
       </c>
     </row>
     <row r="25">
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5111</v>
+        <v>4105</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0003985392481982346</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.001995888847426319</v>
+        <v>0.001602947669561003</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6706</v>
+        <v>5106</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0002385144741356514</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.00156718046831607</v>
+        <v>0.001193284951466961</v>
       </c>
     </row>
     <row r="26">
@@ -4011,19 +4011,19 @@
         <v>4212</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>10035</v>
+        <v>9726</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.001644975233027503</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0004256069351235042</v>
+        <v>0.0004261888080159469</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.003918693719003784</v>
+        <v>0.00379805729654989</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -4035,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8047</v>
+        <v>7163</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.001176861628887091</v>
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.004684046718774143</v>
+        <v>0.004169081724700512</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -4053,19 +4053,19 @@
         <v>6234</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2547</v>
+        <v>2028</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>12952</v>
+        <v>12261</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.001457014388325626</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0005953536698272884</v>
+        <v>0.0004740554571429638</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.003027017351293936</v>
+        <v>0.002865426516218128</v>
       </c>
     </row>
     <row r="27">
@@ -4082,19 +4082,19 @@
         <v>2555512</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2548941</v>
+        <v>2549385</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2558781</v>
+        <v>2558817</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9979564855187743</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9953903276843546</v>
+        <v>0.995563742245865</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9992328794589838</v>
+        <v>0.9992470257895409</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1670</v>
@@ -4103,19 +4103,19 @@
         <v>1712083</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1705129</v>
+        <v>1705075</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1716079</v>
+        <v>1716074</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9965199594899504</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9924724581885294</v>
+        <v>0.9924410891397907</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9988456483286345</v>
+        <v>0.9988429717874142</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4078</v>
@@ -4124,19 +4124,19 @@
         <v>4267595</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4259679</v>
+        <v>4259840</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4272817</v>
+        <v>4273564</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.997379679710471</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9955296922368106</v>
+        <v>0.9955671360554011</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9985999989071211</v>
+        <v>0.9987747100802206</v>
       </c>
     </row>
     <row r="28">
